--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -63,14 +63,90 @@
     <t>http / https</t>
   </si>
   <si>
-    <t>GET, POST, DELETE</t>
+    <t>SSL stands for Secure Sockets Layer, the protocol which provides the encryption. SSL Certificates are typically installed on pages that require end-users to submit sensitive information over the internet like credit card details or passwords. Example pages include payment pages, online forms and login pages.</t>
+  </si>
+  <si>
+    <t>HTTP Methods:  GET, POST, DELETE, PUT. Request</t>
+  </si>
+  <si>
+    <t>REST Web Services  - REST Response</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">REST </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Representational State Transfer ; Put update, post create new resource. GET - read only. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PUT, POST, DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - write methods. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POST (NOT IDEMPOTENCE) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can not be safely repeateble. GET&lt; PUT&lt; DELETE can be rebeatable safely, so u can make so many calls as u need.
+When user clicks refresh button at browser the last request to the server should be done, if the last request was with the POST method - the message will appear: you have subbmited data before are you sure you want to repeat the action again.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +169,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -123,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -135,6 +219,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,16 +608,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="94.7109375" style="2" customWidth="1"/>
   </cols>
@@ -546,14 +636,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,203 @@
       </rPr>
       <t>can not be safely repeateble. GET&lt; PUT&lt; DELETE can be rebeatable safely, so u can make so many calls as u need.
 When user clicks refresh button at browser the last request to the server should be done, if the last request was with the POST method - the message will appear: you have subbmited data before are you sure you want to repeat the action again.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP MESSAGES: REQUESTS AND RESPONSE. Response : HTML page, AML, JSON. </t>
+  </si>
+  <si>
+    <t>HTTP MESSAGES</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTTP/Messages</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HEADER + BODY. &gt;&gt; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start Line:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. An HTTP method, a verb (like GET, PUT or POST) or a noun (like HEAD or OPTIONS), that describes the action to be performed.
+2. The request target, usually a URL, or the absolute path of the protocol, port, and domain are usually characterized by the request context. 
+3. The HTTP version
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HEADERS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">General headers, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Via</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request headers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User-Agent, Accept-Type. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entity headers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Content-Length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
     </r>
   </si>
 </sst>
@@ -146,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +369,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -608,10 +815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,14 +859,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium Webdriver" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -337,6 +337,22 @@
       <t xml:space="preserve">.
 </t>
     </r>
+  </si>
+  <si>
+    <t>By method</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>By.id, By.name, By.tagName, By.xpath, By.css, By.linkText, By.partialLinkText</t>
+  </si>
+  <si>
+    <t>driver.findElement(By.id('home_link')).then(function(link){
+    link.getText().then(function(text){
+        console.log(text);
+    });
+});</t>
   </si>
 </sst>
 </file>
@@ -715,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,6 +771,22 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>

--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Selenium Webdriver" sheetId="3" r:id="rId1"/>
-    <sheet name="Javascript" sheetId="2" r:id="rId2"/>
-    <sheet name="General" sheetId="4" r:id="rId3"/>
-    <sheet name="Template" sheetId="1" r:id="rId4"/>
+    <sheet name="C#" sheetId="5" r:id="rId1"/>
+    <sheet name="Selenium Webdriver" sheetId="3" r:id="rId2"/>
+    <sheet name="Javascript" sheetId="2" r:id="rId3"/>
+    <sheet name="General" sheetId="4" r:id="rId4"/>
+    <sheet name="Template" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -353,6 +354,12 @@
         console.log(text);
     });
 });</t>
+  </si>
+  <si>
+    <t>04.03.2018</t>
+  </si>
+  <si>
+    <t>Overview Selenium + C#</t>
   </si>
 </sst>
 </file>
@@ -731,9 +738,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="94.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -798,7 +849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -845,7 +896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -919,7 +970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>

--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>Overview Selenium + C#</t>
+  </si>
+  <si>
+    <t>05.03.2018</t>
+  </si>
+  <si>
+    <t>Basic lessons C#: Varialbles, Data types</t>
   </si>
 </sst>
 </file>
@@ -738,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,6 +778,14 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Basic lessons C#: Varialbles, Data types</t>
+  </si>
+  <si>
+    <t>C# setting up visual studio. Connecting selenium driver, chrome</t>
   </si>
 </sst>
 </file>
@@ -744,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +789,11 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="5" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Javascript" sheetId="2" r:id="rId3"/>
     <sheet name="General" sheetId="4" r:id="rId4"/>
     <sheet name="Template" sheetId="1" r:id="rId5"/>
+    <sheet name="Security" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -369,6 +370,15 @@
   </si>
   <si>
     <t>C# setting up visual studio. Connecting selenium driver, chrome</t>
+  </si>
+  <si>
+    <t>09.03.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security. Gray hat hackers. </t>
+  </si>
+  <si>
+    <t>UDEMY cource. Start</t>
   </si>
 </sst>
 </file>
@@ -749,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
@@ -923,7 +933,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,4 +1036,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="94.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t>UDEMY cource. Start</t>
+  </si>
+  <si>
+    <t>METHODS OF HACKING WEBSITE:
+1. SQL INJECTION
+2. CROSS SITE SCRIPTING
+3. REMOTE FILE INCLUSION
+4. LOCAL FILE INCLUSION
+5. DDOS ATTACK
+6. EXPLOITING VULNERABILITY</t>
+  </si>
+  <si>
+    <t>12.03.2018</t>
+  </si>
+  <si>
+    <t>https://www.hackingloops.com/6-ways-to-hack-or-deface-websites-online/</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,8 +1094,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>https://www.hackingloops.com/6-ways-to-hack-or-deface-websites-online/</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>13.03.2018</t>
   </si>
 </sst>
 </file>
@@ -772,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C9:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +825,14 @@
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Study Plan.xlsx
+++ b/Study Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>13.03.2018</t>
+  </si>
+  <si>
+    <t>Continuous Integration</t>
+  </si>
+  <si>
+    <t>15.03.2018</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -959,10 +965,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1026,14 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
